--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.5813823333333</v>
+        <v>186.2750726666667</v>
       </c>
       <c r="N2">
-        <v>703.744147</v>
+        <v>558.8252179999999</v>
       </c>
       <c r="O2">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="P2">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="Q2">
-        <v>8655.969262546507</v>
+        <v>6881.814150815475</v>
       </c>
       <c r="R2">
-        <v>77903.72336291856</v>
+        <v>61936.32735733927</v>
       </c>
       <c r="S2">
-        <v>0.7081676734686512</v>
+        <v>0.8103609741962308</v>
       </c>
       <c r="T2">
-        <v>0.7081676734686513</v>
+        <v>0.8103609741962309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.331</v>
       </c>
       <c r="O3">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="P3">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="Q3">
-        <v>77.87054661099999</v>
+        <v>77.96492353144444</v>
       </c>
       <c r="R3">
-        <v>700.8349194989999</v>
+        <v>701.684311783</v>
       </c>
       <c r="S3">
-        <v>0.006370794783647458</v>
+        <v>0.009180679687287013</v>
       </c>
       <c r="T3">
-        <v>0.006370794783647459</v>
+        <v>0.009180679687287014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H4">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I4">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J4">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.099218</v>
+        <v>3.069835</v>
       </c>
       <c r="N4">
-        <v>9.297654</v>
+        <v>9.209505</v>
       </c>
       <c r="O4">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="P4">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="Q4">
-        <v>114.360037779174</v>
+        <v>113.4131026832183</v>
       </c>
       <c r="R4">
-        <v>1029.240340012566</v>
+        <v>1020.717924148965</v>
       </c>
       <c r="S4">
-        <v>0.009356096288636697</v>
+        <v>0.01335484370296449</v>
       </c>
       <c r="T4">
-        <v>0.009356096288636697</v>
+        <v>0.01335484370296449</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>234.5813823333333</v>
+        <v>186.2750726666667</v>
       </c>
       <c r="N5">
-        <v>703.744147</v>
+        <v>558.8252179999999</v>
       </c>
       <c r="O5">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="P5">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="Q5">
-        <v>791.6697061447976</v>
+        <v>628.6446544618473</v>
       </c>
       <c r="R5">
-        <v>7125.027355303178</v>
+        <v>5657.801890156626</v>
       </c>
       <c r="S5">
-        <v>0.06476858650388026</v>
+        <v>0.07402540717444246</v>
       </c>
       <c r="T5">
-        <v>0.06476858650388026</v>
+        <v>0.07402540717444246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.331</v>
       </c>
       <c r="O6">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="P6">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="Q6">
         <v>7.121993029666666</v>
@@ -818,10 +818,10 @@
         <v>64.09793726699999</v>
       </c>
       <c r="S6">
-        <v>0.0005826690323522733</v>
+        <v>0.0008386429919871569</v>
       </c>
       <c r="T6">
-        <v>0.0005826690323522733</v>
+        <v>0.0008386429919871569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.099218</v>
+        <v>3.069835</v>
       </c>
       <c r="N7">
-        <v>9.297654</v>
+        <v>9.209505</v>
       </c>
       <c r="O7">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="P7">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="Q7">
-        <v>10.459299791542</v>
+        <v>10.360137484865</v>
       </c>
       <c r="R7">
-        <v>94.13369812387799</v>
+        <v>93.241237363785</v>
       </c>
       <c r="S7">
-        <v>0.0008557028999093734</v>
+        <v>0.001219947374493869</v>
       </c>
       <c r="T7">
-        <v>0.0008557028999093734</v>
+        <v>0.001219947374493869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H8">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>234.5813823333333</v>
+        <v>186.2750726666667</v>
       </c>
       <c r="N8">
-        <v>703.744147</v>
+        <v>558.8252179999999</v>
       </c>
       <c r="O8">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="P8">
-        <v>0.9782746109134588</v>
+        <v>0.9729431886728379</v>
       </c>
       <c r="Q8">
-        <v>2509.861041045297</v>
+        <v>752.0494064358786</v>
       </c>
       <c r="R8">
-        <v>22588.74936940767</v>
+        <v>6768.444657922906</v>
       </c>
       <c r="S8">
-        <v>0.2053383509409274</v>
+        <v>0.08855680730216461</v>
       </c>
       <c r="T8">
-        <v>0.2053383509409274</v>
+        <v>0.08855680730216461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H9">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.331</v>
       </c>
       <c r="O9">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="P9">
-        <v>0.008800721950008783</v>
+        <v>0.01102259370028598</v>
       </c>
       <c r="Q9">
-        <v>22.57912952966666</v>
+        <v>8.520060725222223</v>
       </c>
       <c r="R9">
-        <v>203.212165767</v>
+        <v>76.680546527</v>
       </c>
       <c r="S9">
-        <v>0.001847258134009051</v>
+        <v>0.001003271021011805</v>
       </c>
       <c r="T9">
-        <v>0.001847258134009051</v>
+        <v>0.001003271021011805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H10">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.099218</v>
+        <v>3.069835</v>
       </c>
       <c r="N10">
-        <v>9.297654</v>
+        <v>9.209505</v>
       </c>
       <c r="O10">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="P10">
-        <v>0.01292466713653245</v>
+        <v>0.01603421762687604</v>
       </c>
       <c r="Q10">
-        <v>33.15952203254199</v>
+        <v>12.39386224123167</v>
       </c>
       <c r="R10">
-        <v>298.4356982928779</v>
+        <v>111.544760171085</v>
       </c>
       <c r="S10">
-        <v>0.002712867947986382</v>
+        <v>0.001459426549417678</v>
       </c>
       <c r="T10">
-        <v>0.002712867947986382</v>
+        <v>0.001459426549417678</v>
       </c>
     </row>
   </sheetData>
